--- a/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 37,35</t>
+          <t>31,08; 36,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 35,02</t>
+          <t>28,97; 35,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 33,63</t>
+          <t>26,53; 33,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 31,55</t>
+          <t>23,76; 31,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 14,97</t>
+          <t>11,42; 15,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 16,81</t>
+          <t>12,86; 16,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,19</t>
+          <t>11,76; 16,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,13</t>
+          <t>8,93; 12,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,64; 24,06</t>
+          <t>20,79; 24,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,35; 23,78</t>
+          <t>20,42; 24,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 22,72</t>
+          <t>18,74; 22,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 19,29</t>
+          <t>15,53; 19,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,87; 47,59</t>
+          <t>42,96; 47,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,91; 42,52</t>
+          <t>38,07; 42,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,66; 40,89</t>
+          <t>36,77; 41,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,7</t>
+          <t>17,78; 29,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,06; 35,69</t>
+          <t>31,09; 35,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 37,98</t>
+          <t>33,25; 37,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,2; 35,3</t>
+          <t>31,24; 35,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 23,83</t>
+          <t>15,44; 24,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,81; 41,28</t>
+          <t>37,88; 41,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,4; 39,79</t>
+          <t>36,27; 39,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,65; 37,61</t>
+          <t>34,72; 37,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,13; 26,19</t>
+          <t>19,13; 26,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,68</t>
+          <t>29,4; 37,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,32; 37,03</t>
+          <t>28,21; 37,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,13; 29,01</t>
+          <t>21,24; 28,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,32</t>
+          <t>12,79; 20,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,09; 30,92</t>
+          <t>22,53; 31,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 34,6</t>
+          <t>25,52; 34,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 26,01</t>
+          <t>18,28; 25,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,41</t>
+          <t>13,91; 19,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 32,93</t>
+          <t>27,72; 33,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 34,27</t>
+          <t>28,0; 34,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,07</t>
+          <t>20,98; 26,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,23; 18,92</t>
+          <t>14,38; 19,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,56</t>
+          <t>38,0; 41,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,1; 38,51</t>
+          <t>35,06; 38,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 36,12</t>
+          <t>32,91; 36,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 26,56</t>
+          <t>19,1; 26,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,14; 26,14</t>
+          <t>23,23; 26,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 28,58</t>
+          <t>25,49; 28,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,58</t>
+          <t>24,5; 27,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 19,53</t>
+          <t>14,79; 19,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,98; 33,19</t>
+          <t>30,89; 33,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 32,94</t>
+          <t>30,62; 33,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 31,3</t>
+          <t>29,14; 31,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,58</t>
+          <t>18,08; 22,61</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>351427</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>313663</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>224410</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>141171</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>172167</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>196990</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>136215</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78845</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>523593</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>510653</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>360625</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>220016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>320323; 381175</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>282391; 345543</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>199866; 249807</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>122350; 162353</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>150155; 198271</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>172023; 225606</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>116721; 158762</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67444; 93320</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>487779; 571051</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>472297; 556850</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>327104; 393330</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>197344; 242002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>769266</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>789570</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>804915</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>589277</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>530065</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>625215</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>660959</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>464472</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1299331</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1414785</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1465873</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1053749</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>727420; 808445</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>747368; 834994</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>763425; 852246</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>406821; 679419</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>493534; 568151</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>583770; 661822</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>620480; 699211</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>345271; 540677</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1242956; 1356544</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1348676; 1472770</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1410542; 1529293</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>865553; 1188253</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>184569</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>155793</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>136154</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103442</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>127572</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>136616</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>120452</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>107408</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>312141</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>292409</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>256606</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>210850</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>162131; 206310</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>135761; 180922</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>115929; 157933</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82710; 131050</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>107359; 148093</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>117054; 158049</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100239; 139570</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>91502; 125185</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>284861; 344952</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>263191; 322982</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>229525; 287983</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>187542; 248201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1305261</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1259026</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1165478</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>833890</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>829803</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>958821</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>917625</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>650725</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2135065</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2217847</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2083104</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1484616</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1244842; 1361477</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1198467; 1314057</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1110958; 1220029</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>658818; 926608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>785050; 885840</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>905566; 1014150</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>864180; 970567</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>539985; 718220</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2055957; 2216426</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2134504; 2306492</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2011008; 2158537</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1283543; 1605420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
